--- a/GDP/simple_golden_rule_pan.xlsx
+++ b/GDP/simple_golden_rule_pan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\macro\GDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suramericana-my.sharepoint.com/personal/dgutierrezv_sura_com/Documents/Documents/GitHub/macro/GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C334686-4CE3-4EB5-8BDA-CC65A366C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{5C334686-4CE3-4EB5-8BDA-CC65A366C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E7C006-51C5-4DBA-A963-9B6BEBEC4495}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{38870D0C-4BAA-46FD-B714-AFC6A4ED00F5}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{38870D0C-4BAA-46FD-B714-AFC6A4ED00F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,138 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Daniel Gutierrez Velez</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DE4E4DFE-F6B5-4A12-85ED-2F82D0BBB3FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel Gutierrez Velez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+gross capital formation constatn 2015 usd, world bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3F06EDDA-7C3D-490A-9F97-899B842EE4B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel Gutierrez Velez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+gdp constant 2015 usd, world bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{991B3090-93D4-4D4B-8630-954BE232ABD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel Gutierrez Velez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+population, world bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1C4C17BB-E941-4A61-800F-59F1479D8DB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel Gutierrez Velez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+gross domestic savings as % of gdp, world bank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CE664B10-C4D4-45C1-A50D-176B00005668}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel Gutierrez Velez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Final consumption expenditure 2015 USD, world bank</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="613">
   <si>
     <t>Country Name</t>
   </si>
@@ -1868,13 +1998,28 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>S_Y</t>
+  </si>
+  <si>
+    <t>Y_growth</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1903,6 +2048,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1944,13 +2102,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2273,9 +2432,9 @@
       <selection activeCell="E187" sqref="E187:BN187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2634,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2675,7 +2834,7 @@
         <v>106537</v>
       </c>
     </row>
-    <row r="3" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2875,7 +3034,7 @@
         <v>702976832</v>
       </c>
     </row>
-    <row r="4" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -3075,7 +3234,7 @@
         <v>40099462</v>
       </c>
     </row>
-    <row r="5" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -3275,7 +3434,7 @@
         <v>478185907</v>
       </c>
     </row>
-    <row r="6" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -3475,7 +3634,7 @@
         <v>34503774</v>
       </c>
     </row>
-    <row r="7" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3675,7 +3834,7 @@
         <v>2811666</v>
       </c>
     </row>
-    <row r="8" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -3875,7 +4034,7 @@
         <v>79034</v>
       </c>
     </row>
-    <row r="9" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -4075,7 +4234,7 @@
         <v>456520777</v>
       </c>
     </row>
-    <row r="10" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -4275,7 +4434,7 @@
         <v>9365145</v>
       </c>
     </row>
-    <row r="11" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -4475,7 +4634,7 @@
         <v>45808747</v>
       </c>
     </row>
-    <row r="12" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -4675,7 +4834,7 @@
         <v>2790974</v>
       </c>
     </row>
-    <row r="13" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -4875,7 +5034,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="14" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -5075,7 +5234,7 @@
         <v>93219</v>
       </c>
     </row>
-    <row r="15" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -5275,7 +5434,7 @@
         <v>25688079</v>
       </c>
     </row>
-    <row r="16" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -5475,7 +5634,7 @@
         <v>8955797</v>
       </c>
     </row>
-    <row r="17" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -5675,7 +5834,7 @@
         <v>10137750</v>
       </c>
     </row>
-    <row r="18" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -5875,7 +6034,7 @@
         <v>12551213</v>
       </c>
     </row>
-    <row r="19" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -6075,7 +6234,7 @@
         <v>11592952</v>
       </c>
     </row>
-    <row r="20" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -6275,7 +6434,7 @@
         <v>12996895</v>
       </c>
     </row>
-    <row r="21" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -6475,7 +6634,7 @@
         <v>22100683</v>
       </c>
     </row>
-    <row r="22" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -6675,7 +6834,7 @@
         <v>169356251</v>
       </c>
     </row>
-    <row r="23" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -6875,7 +7034,7 @@
         <v>6877743</v>
       </c>
     </row>
-    <row r="24" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -7075,7 +7234,7 @@
         <v>1463265</v>
       </c>
     </row>
-    <row r="25" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -7275,7 +7434,7 @@
         <v>407906</v>
       </c>
     </row>
-    <row r="26" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -7475,7 +7634,7 @@
         <v>3270943</v>
       </c>
     </row>
-    <row r="27" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -7675,7 +7834,7 @@
         <v>9340314</v>
       </c>
     </row>
-    <row r="28" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -7875,7 +8034,7 @@
         <v>400031</v>
       </c>
     </row>
-    <row r="29" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -8075,7 +8234,7 @@
         <v>63867</v>
       </c>
     </row>
-    <row r="30" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -8275,7 +8434,7 @@
         <v>12079472</v>
       </c>
     </row>
-    <row r="31" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -8475,7 +8634,7 @@
         <v>214326223</v>
       </c>
     </row>
-    <row r="32" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -8675,7 +8834,7 @@
         <v>281200</v>
       </c>
     </row>
-    <row r="33" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -8875,7 +9034,7 @@
         <v>445373</v>
       </c>
     </row>
-    <row r="34" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -9075,7 +9234,7 @@
         <v>777486</v>
       </c>
     </row>
-    <row r="35" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -9275,7 +9434,7 @@
         <v>2588423</v>
       </c>
     </row>
-    <row r="36" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -9475,7 +9634,7 @@
         <v>5457154</v>
       </c>
     </row>
-    <row r="37" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -9675,7 +9834,7 @@
         <v>38246108</v>
       </c>
     </row>
-    <row r="38" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -9875,7 +10034,7 @@
         <v>101430997</v>
       </c>
     </row>
-    <row r="39" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>140</v>
       </c>
@@ -10075,7 +10234,7 @@
         <v>8703405</v>
       </c>
     </row>
-    <row r="40" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -10275,7 +10434,7 @@
         <v>172683</v>
       </c>
     </row>
-    <row r="41" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>144</v>
       </c>
@@ -10475,7 +10634,7 @@
         <v>19493184</v>
       </c>
     </row>
-    <row r="42" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -10675,7 +10834,7 @@
         <v>1412360000</v>
       </c>
     </row>
-    <row r="43" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -10875,7 +11034,7 @@
         <v>27478249</v>
       </c>
     </row>
-    <row r="44" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -11075,7 +11234,7 @@
         <v>27198628</v>
       </c>
     </row>
-    <row r="45" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -11275,7 +11434,7 @@
         <v>95894118</v>
       </c>
     </row>
-    <row r="46" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>154</v>
       </c>
@@ -11475,7 +11634,7 @@
         <v>5835806</v>
       </c>
     </row>
-    <row r="47" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -11675,7 +11834,7 @@
         <v>51516562</v>
       </c>
     </row>
-    <row r="48" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>158</v>
       </c>
@@ -11875,7 +12034,7 @@
         <v>821625</v>
       </c>
     </row>
-    <row r="49" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -12075,7 +12234,7 @@
         <v>587925</v>
       </c>
     </row>
-    <row r="50" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -12275,7 +12434,7 @@
         <v>5153957</v>
       </c>
     </row>
-    <row r="51" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -12475,7 +12634,7 @@
         <v>7481877</v>
       </c>
     </row>
-    <row r="52" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -12675,7 +12834,7 @@
         <v>11256372</v>
       </c>
     </row>
-    <row r="53" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>168</v>
       </c>
@@ -12875,7 +13034,7 @@
         <v>152369</v>
       </c>
     </row>
-    <row r="54" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -13075,7 +13234,7 @@
         <v>68136</v>
       </c>
     </row>
-    <row r="55" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -13275,7 +13434,7 @@
         <v>1244188</v>
       </c>
     </row>
-    <row r="56" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>174</v>
       </c>
@@ -13475,7 +13634,7 @@
         <v>10505772</v>
       </c>
     </row>
-    <row r="57" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>176</v>
       </c>
@@ -13675,7 +13834,7 @@
         <v>83196078</v>
       </c>
     </row>
-    <row r="58" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -13875,7 +14034,7 @@
         <v>1105557</v>
       </c>
     </row>
-    <row r="59" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -14075,7 +14234,7 @@
         <v>72412</v>
       </c>
     </row>
-    <row r="60" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -14275,7 +14434,7 @@
         <v>5856733</v>
       </c>
     </row>
-    <row r="61" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -14475,7 +14634,7 @@
         <v>11117873</v>
       </c>
     </row>
-    <row r="62" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -14675,7 +14834,7 @@
         <v>44177969</v>
       </c>
     </row>
-    <row r="63" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -14875,7 +15034,7 @@
         <v>2123673456</v>
       </c>
     </row>
-    <row r="64" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -15075,7 +15234,7 @@
         <v>3411889059</v>
       </c>
     </row>
-    <row r="65" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -15275,7 +15434,7 @@
         <v>2370204347</v>
       </c>
     </row>
-    <row r="66" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -15475,7 +15634,7 @@
         <v>401575218</v>
       </c>
     </row>
-    <row r="67" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>196</v>
       </c>
@@ -15675,7 +15834,7 @@
         <v>923777214</v>
       </c>
     </row>
-    <row r="68" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -15875,7 +16034,7 @@
         <v>17797737</v>
       </c>
     </row>
-    <row r="69" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -16075,7 +16234,7 @@
         <v>109262178</v>
       </c>
     </row>
-    <row r="70" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -16275,7 +16434,7 @@
         <v>343067846</v>
       </c>
     </row>
-    <row r="71" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -16475,7 +16634,7 @@
         <v>3620312</v>
       </c>
     </row>
-    <row r="72" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -16675,7 +16834,7 @@
         <v>47415750</v>
       </c>
     </row>
-    <row r="73" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -16875,7 +17034,7 @@
         <v>1330932</v>
       </c>
     </row>
-    <row r="74" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>210</v>
       </c>
@@ -17075,7 +17234,7 @@
         <v>120283026</v>
       </c>
     </row>
-    <row r="75" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -17275,7 +17434,7 @@
         <v>447199800</v>
       </c>
     </row>
-    <row r="76" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>214</v>
       </c>
@@ -17475,7 +17634,7 @@
         <v>1001462452</v>
       </c>
     </row>
-    <row r="77" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>216</v>
       </c>
@@ -17675,7 +17834,7 @@
         <v>5541017</v>
       </c>
     </row>
-    <row r="78" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>218</v>
       </c>
@@ -17875,7 +18034,7 @@
         <v>924610</v>
       </c>
     </row>
-    <row r="79" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>220</v>
       </c>
@@ -18075,7 +18234,7 @@
         <v>67749632</v>
       </c>
     </row>
-    <row r="80" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>222</v>
       </c>
@@ -18275,7 +18434,7 @@
         <v>52889</v>
       </c>
     </row>
-    <row r="81" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>224</v>
       </c>
@@ -18475,7 +18634,7 @@
         <v>113131</v>
       </c>
     </row>
-    <row r="82" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>226</v>
       </c>
@@ -18675,7 +18834,7 @@
         <v>2341179</v>
       </c>
     </row>
-    <row r="83" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>228</v>
       </c>
@@ -18875,7 +19034,7 @@
         <v>67326569</v>
       </c>
     </row>
-    <row r="84" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>230</v>
       </c>
@@ -19075,7 +19234,7 @@
         <v>3708610</v>
       </c>
     </row>
-    <row r="85" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -19275,7 +19434,7 @@
         <v>32833031</v>
       </c>
     </row>
-    <row r="86" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>234</v>
       </c>
@@ -19475,7 +19634,7 @@
         <v>32669</v>
       </c>
     </row>
-    <row r="87" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>236</v>
       </c>
@@ -19675,7 +19834,7 @@
         <v>13531906</v>
       </c>
     </row>
-    <row r="88" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>238</v>
       </c>
@@ -19875,7 +20034,7 @@
         <v>2639916</v>
       </c>
     </row>
-    <row r="89" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>240</v>
       </c>
@@ -20075,7 +20234,7 @@
         <v>2060721</v>
       </c>
     </row>
-    <row r="90" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>242</v>
       </c>
@@ -20275,7 +20434,7 @@
         <v>1634466</v>
       </c>
     </row>
-    <row r="91" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>244</v>
       </c>
@@ -20475,7 +20634,7 @@
         <v>10641221</v>
       </c>
     </row>
-    <row r="92" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>246</v>
       </c>
@@ -20675,7 +20834,7 @@
         <v>124610</v>
       </c>
     </row>
-    <row r="93" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>248</v>
       </c>
@@ -20875,7 +21034,7 @@
         <v>56653</v>
       </c>
     </row>
-    <row r="94" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -21075,7 +21234,7 @@
         <v>17109746</v>
       </c>
     </row>
-    <row r="95" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>252</v>
       </c>
@@ -21275,7 +21434,7 @@
         <v>170534</v>
       </c>
     </row>
-    <row r="96" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>254</v>
       </c>
@@ -21475,7 +21634,7 @@
         <v>804567</v>
       </c>
     </row>
-    <row r="97" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -21675,7 +21834,7 @@
         <v>1240629858</v>
       </c>
     </row>
-    <row r="98" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -21875,7 +22034,7 @@
         <v>7413100</v>
       </c>
     </row>
-    <row r="99" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>260</v>
       </c>
@@ -22075,7 +22234,7 @@
         <v>10278345</v>
       </c>
     </row>
-    <row r="100" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>262</v>
       </c>
@@ -22275,7 +22434,7 @@
         <v>861156745</v>
       </c>
     </row>
-    <row r="101" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>264</v>
       </c>
@@ -22475,7 +22634,7 @@
         <v>3899000</v>
       </c>
     </row>
-    <row r="102" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>266</v>
       </c>
@@ -22675,7 +22834,7 @@
         <v>11447569</v>
       </c>
     </row>
-    <row r="103" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>268</v>
       </c>
@@ -22875,7 +23034,7 @@
         <v>9709891</v>
       </c>
     </row>
-    <row r="104" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>270</v>
       </c>
@@ -23075,7 +23234,7 @@
         <v>4917520297</v>
       </c>
     </row>
-    <row r="105" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>272</v>
       </c>
@@ -23275,7 +23434,7 @@
         <v>6695397735</v>
       </c>
     </row>
-    <row r="106" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>274</v>
       </c>
@@ -23475,7 +23634,7 @@
         <v>1777877438</v>
       </c>
     </row>
-    <row r="107" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>276</v>
       </c>
@@ -23675,7 +23834,7 @@
         <v>595016031</v>
       </c>
     </row>
-    <row r="108" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>278</v>
       </c>
@@ -23875,7 +24034,7 @@
         <v>273753191</v>
       </c>
     </row>
-    <row r="109" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>280</v>
       </c>
@@ -24075,7 +24234,7 @@
         <v>1182861407</v>
       </c>
     </row>
-    <row r="110" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>282</v>
       </c>
@@ -24275,7 +24434,7 @@
         <v>84263</v>
       </c>
     </row>
-    <row r="111" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>284</v>
       </c>
@@ -24475,7 +24634,7 @@
         <v>1407563842</v>
       </c>
     </row>
-    <row r="112" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>286</v>
       </c>
@@ -24489,7 +24648,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="113" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>288</v>
       </c>
@@ -24689,7 +24848,7 @@
         <v>5033165</v>
       </c>
     </row>
-    <row r="114" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>290</v>
       </c>
@@ -24889,7 +25048,7 @@
         <v>87923432</v>
       </c>
     </row>
-    <row r="115" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>292</v>
       </c>
@@ -25089,7 +25248,7 @@
         <v>43533592</v>
       </c>
     </row>
-    <row r="116" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>294</v>
       </c>
@@ -25289,7 +25448,7 @@
         <v>372520</v>
       </c>
     </row>
-    <row r="117" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>296</v>
       </c>
@@ -25489,7 +25648,7 @@
         <v>9364000</v>
       </c>
     </row>
-    <row r="118" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>298</v>
       </c>
@@ -25689,7 +25848,7 @@
         <v>59109668</v>
       </c>
     </row>
-    <row r="119" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>300</v>
       </c>
@@ -25889,7 +26048,7 @@
         <v>2827695</v>
       </c>
     </row>
-    <row r="120" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>302</v>
       </c>
@@ -26089,7 +26248,7 @@
         <v>11148278</v>
       </c>
     </row>
-    <row r="121" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>304</v>
       </c>
@@ -26289,7 +26448,7 @@
         <v>125681593</v>
       </c>
     </row>
-    <row r="122" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>306</v>
       </c>
@@ -26489,7 +26648,7 @@
         <v>19000988</v>
       </c>
     </row>
-    <row r="123" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>308</v>
       </c>
@@ -26689,7 +26848,7 @@
         <v>53005614</v>
       </c>
     </row>
-    <row r="124" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>310</v>
       </c>
@@ -26889,7 +27048,7 @@
         <v>6691800</v>
       </c>
     </row>
-    <row r="125" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>312</v>
       </c>
@@ -27089,7 +27248,7 @@
         <v>16589023</v>
       </c>
     </row>
-    <row r="126" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>314</v>
       </c>
@@ -27289,7 +27448,7 @@
         <v>128874</v>
       </c>
     </row>
-    <row r="127" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>316</v>
       </c>
@@ -27489,7 +27648,7 @@
         <v>47606</v>
       </c>
     </row>
-    <row r="128" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>318</v>
       </c>
@@ -27689,7 +27848,7 @@
         <v>51744876</v>
       </c>
     </row>
-    <row r="129" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>320</v>
       </c>
@@ -27889,7 +28048,7 @@
         <v>4250114</v>
       </c>
     </row>
-    <row r="130" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>322</v>
       </c>
@@ -28089,7 +28248,7 @@
         <v>593308001</v>
       </c>
     </row>
-    <row r="131" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>324</v>
       </c>
@@ -28289,7 +28448,7 @@
         <v>7425057</v>
       </c>
     </row>
-    <row r="132" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>326</v>
       </c>
@@ -28489,7 +28648,7 @@
         <v>5592631</v>
       </c>
     </row>
-    <row r="133" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>328</v>
       </c>
@@ -28689,7 +28848,7 @@
         <v>5193416</v>
       </c>
     </row>
-    <row r="134" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>330</v>
       </c>
@@ -28889,7 +29048,7 @@
         <v>6735277</v>
       </c>
     </row>
-    <row r="135" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>332</v>
       </c>
@@ -29089,7 +29248,7 @@
         <v>179651</v>
       </c>
     </row>
-    <row r="136" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>334</v>
       </c>
@@ -29289,7 +29448,7 @@
         <v>654981699</v>
       </c>
     </row>
-    <row r="137" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>336</v>
       </c>
@@ -29489,7 +29648,7 @@
         <v>1099568566</v>
       </c>
     </row>
-    <row r="138" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>338</v>
       </c>
@@ -29689,7 +29848,7 @@
         <v>718255072</v>
       </c>
     </row>
-    <row r="139" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>340</v>
       </c>
@@ -29889,7 +30048,7 @@
         <v>39039</v>
       </c>
     </row>
-    <row r="140" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>342</v>
       </c>
@@ -30089,7 +30248,7 @@
         <v>22156000</v>
       </c>
     </row>
-    <row r="141" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>344</v>
       </c>
@@ -30289,7 +30448,7 @@
         <v>3398187527</v>
       </c>
     </row>
-    <row r="142" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>346</v>
       </c>
@@ -30489,7 +30648,7 @@
         <v>6619578961</v>
       </c>
     </row>
-    <row r="143" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>348</v>
       </c>
@@ -30689,7 +30848,7 @@
         <v>2281454</v>
       </c>
     </row>
-    <row r="144" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>350</v>
       </c>
@@ -30889,7 +31048,7 @@
         <v>2321862159</v>
       </c>
     </row>
-    <row r="145" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>352</v>
       </c>
@@ -31089,7 +31248,7 @@
         <v>2800839</v>
       </c>
     </row>
-    <row r="146" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>354</v>
       </c>
@@ -31289,7 +31448,7 @@
         <v>640064</v>
       </c>
     </row>
-    <row r="147" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>356</v>
       </c>
@@ -31489,7 +31648,7 @@
         <v>1884490</v>
       </c>
     </row>
-    <row r="148" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>358</v>
       </c>
@@ -31689,7 +31848,7 @@
         <v>686607</v>
       </c>
     </row>
-    <row r="149" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>360</v>
       </c>
@@ -31889,7 +32048,7 @@
         <v>31948</v>
       </c>
     </row>
-    <row r="150" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>362</v>
       </c>
@@ -32089,7 +32248,7 @@
         <v>37076584</v>
       </c>
     </row>
-    <row r="151" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>364</v>
       </c>
@@ -32289,7 +32448,7 @@
         <v>36686</v>
       </c>
     </row>
-    <row r="152" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>366</v>
       </c>
@@ -32489,7 +32648,7 @@
         <v>2615199</v>
       </c>
     </row>
-    <row r="153" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -32689,7 +32848,7 @@
         <v>28915653</v>
       </c>
     </row>
-    <row r="154" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>370</v>
       </c>
@@ -32889,7 +33048,7 @@
         <v>521457</v>
       </c>
     </row>
-    <row r="155" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>372</v>
       </c>
@@ -33089,7 +33248,7 @@
         <v>486167363</v>
       </c>
     </row>
-    <row r="156" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>374</v>
       </c>
@@ -33289,7 +33448,7 @@
         <v>126705138</v>
       </c>
     </row>
-    <row r="157" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>376</v>
       </c>
@@ -33489,7 +33648,7 @@
         <v>42050</v>
       </c>
     </row>
-    <row r="158" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>378</v>
       </c>
@@ -33689,7 +33848,7 @@
         <v>5901323889</v>
       </c>
     </row>
-    <row r="159" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>380</v>
       </c>
@@ -33889,7 +34048,7 @@
         <v>2065092</v>
       </c>
     </row>
-    <row r="160" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>382</v>
       </c>
@@ -34089,7 +34248,7 @@
         <v>21904983</v>
       </c>
     </row>
-    <row r="161" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>384</v>
       </c>
@@ -34289,7 +34448,7 @@
         <v>518536</v>
       </c>
     </row>
-    <row r="162" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>386</v>
       </c>
@@ -34489,7 +34648,7 @@
         <v>53798084</v>
       </c>
     </row>
-    <row r="163" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>388</v>
       </c>
@@ -34689,7 +34848,7 @@
         <v>418047201</v>
       </c>
     </row>
-    <row r="164" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>390</v>
       </c>
@@ -34889,7 +35048,7 @@
         <v>619211</v>
       </c>
     </row>
-    <row r="165" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>392</v>
       </c>
@@ -35089,7 +35248,7 @@
         <v>3347782</v>
       </c>
     </row>
-    <row r="166" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>394</v>
       </c>
@@ -35289,7 +35448,7 @@
         <v>49481</v>
       </c>
     </row>
-    <row r="167" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>396</v>
       </c>
@@ -35489,7 +35648,7 @@
         <v>32077072</v>
       </c>
     </row>
-    <row r="168" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>398</v>
       </c>
@@ -35689,7 +35848,7 @@
         <v>4614974</v>
       </c>
     </row>
-    <row r="169" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>400</v>
       </c>
@@ -35889,7 +36048,7 @@
         <v>1266060</v>
       </c>
     </row>
-    <row r="170" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>402</v>
       </c>
@@ -36089,7 +36248,7 @@
         <v>19889742</v>
       </c>
     </row>
-    <row r="171" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>404</v>
       </c>
@@ -36289,7 +36448,7 @@
         <v>33573874</v>
       </c>
     </row>
-    <row r="172" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>406</v>
       </c>
@@ -36489,7 +36648,7 @@
         <v>370203720</v>
       </c>
     </row>
-    <row r="173" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>408</v>
       </c>
@@ -36689,7 +36848,7 @@
         <v>2530151</v>
       </c>
     </row>
-    <row r="174" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>410</v>
       </c>
@@ -36889,7 +37048,7 @@
         <v>271030</v>
       </c>
     </row>
-    <row r="175" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>412</v>
       </c>
@@ -37089,7 +37248,7 @@
         <v>25252722</v>
       </c>
     </row>
-    <row r="176" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>414</v>
       </c>
@@ -37289,7 +37448,7 @@
         <v>213401323</v>
       </c>
     </row>
-    <row r="177" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>416</v>
       </c>
@@ -37489,7 +37648,7 @@
         <v>6850540</v>
       </c>
     </row>
-    <row r="178" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>418</v>
       </c>
@@ -37689,7 +37848,7 @@
         <v>17533044</v>
       </c>
     </row>
-    <row r="179" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>420</v>
       </c>
@@ -37889,7 +38048,7 @@
         <v>5408320</v>
       </c>
     </row>
-    <row r="180" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>422</v>
       </c>
@@ -38089,7 +38248,7 @@
         <v>30034989</v>
       </c>
     </row>
-    <row r="181" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>424</v>
       </c>
@@ -38289,7 +38448,7 @@
         <v>12511</v>
       </c>
     </row>
-    <row r="182" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>426</v>
       </c>
@@ -38489,7 +38648,7 @@
         <v>5122600</v>
       </c>
     </row>
-    <row r="183" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>428</v>
       </c>
@@ -38689,7 +38848,7 @@
         <v>1372736513</v>
       </c>
     </row>
-    <row r="184" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>430</v>
       </c>
@@ -38889,7 +39048,7 @@
         <v>4520471</v>
       </c>
     </row>
-    <row r="185" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>432</v>
       </c>
@@ -39089,7 +39248,7 @@
         <v>32708003</v>
       </c>
     </row>
-    <row r="186" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>434</v>
       </c>
@@ -39289,7 +39448,7 @@
         <v>231402117</v>
       </c>
     </row>
-    <row r="187" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>436</v>
       </c>
@@ -39489,7 +39648,7 @@
         <v>4351267</v>
       </c>
     </row>
-    <row r="188" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>438</v>
       </c>
@@ -39689,7 +39848,7 @@
         <v>33715471</v>
       </c>
     </row>
-    <row r="189" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>440</v>
       </c>
@@ -39889,7 +40048,7 @@
         <v>113880328</v>
       </c>
     </row>
-    <row r="190" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>442</v>
       </c>
@@ -40089,7 +40248,7 @@
         <v>18024</v>
       </c>
     </row>
-    <row r="191" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>444</v>
       </c>
@@ -40289,7 +40448,7 @@
         <v>9949437</v>
       </c>
     </row>
-    <row r="192" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>446</v>
       </c>
@@ -40489,7 +40648,7 @@
         <v>37747124</v>
       </c>
     </row>
-    <row r="193" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>448</v>
       </c>
@@ -40689,7 +40848,7 @@
         <v>1011043183</v>
       </c>
     </row>
-    <row r="194" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>450</v>
       </c>
@@ -40889,7 +41048,7 @@
         <v>3263584</v>
       </c>
     </row>
-    <row r="195" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>452</v>
       </c>
@@ -41089,7 +41248,7 @@
         <v>25971909</v>
       </c>
     </row>
-    <row r="196" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>454</v>
       </c>
@@ -41289,7 +41448,7 @@
         <v>10325147</v>
       </c>
     </row>
-    <row r="197" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>456</v>
       </c>
@@ -41489,7 +41648,7 @@
         <v>6703799</v>
       </c>
     </row>
-    <row r="198" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>458</v>
       </c>
@@ -41599,7 +41758,7 @@
         <v>4922749</v>
       </c>
     </row>
-    <row r="199" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>460</v>
       </c>
@@ -41799,7 +41958,7 @@
         <v>2602173</v>
       </c>
     </row>
-    <row r="200" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>462</v>
       </c>
@@ -41999,7 +42158,7 @@
         <v>1116796245</v>
       </c>
     </row>
-    <row r="201" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>464</v>
       </c>
@@ -42199,7 +42358,7 @@
         <v>304032</v>
       </c>
     </row>
-    <row r="202" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>466</v>
       </c>
@@ -42399,7 +42558,7 @@
         <v>2688235</v>
       </c>
     </row>
-    <row r="203" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>468</v>
       </c>
@@ -42599,7 +42758,7 @@
         <v>19119880</v>
       </c>
     </row>
-    <row r="204" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>470</v>
       </c>
@@ -42799,7 +42958,7 @@
         <v>143449286</v>
       </c>
     </row>
-    <row r="205" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>472</v>
       </c>
@@ -42999,7 +43158,7 @@
         <v>13461888</v>
       </c>
     </row>
-    <row r="206" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>474</v>
       </c>
@@ -43199,7 +43358,7 @@
         <v>1901911604</v>
       </c>
     </row>
-    <row r="207" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>476</v>
       </c>
@@ -43399,7 +43558,7 @@
         <v>35950396</v>
       </c>
     </row>
-    <row r="208" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>478</v>
       </c>
@@ -43599,7 +43758,7 @@
         <v>45657202</v>
       </c>
     </row>
-    <row r="209" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>480</v>
       </c>
@@ -43799,7 +43958,7 @@
         <v>16876720</v>
       </c>
     </row>
-    <row r="210" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>482</v>
       </c>
@@ -43999,7 +44158,7 @@
         <v>5453566</v>
       </c>
     </row>
-    <row r="211" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>484</v>
       </c>
@@ -44199,7 +44358,7 @@
         <v>707851</v>
       </c>
     </row>
-    <row r="212" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>486</v>
       </c>
@@ -44399,7 +44558,7 @@
         <v>8420641</v>
       </c>
     </row>
-    <row r="213" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>488</v>
       </c>
@@ -44599,7 +44758,7 @@
         <v>6314167</v>
       </c>
     </row>
-    <row r="214" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>490</v>
       </c>
@@ -44799,7 +44958,7 @@
         <v>33745</v>
       </c>
     </row>
-    <row r="215" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>492</v>
       </c>
@@ -44999,7 +45158,7 @@
         <v>17065581</v>
       </c>
     </row>
-    <row r="216" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>494</v>
       </c>
@@ -45199,7 +45358,7 @@
         <v>6834326</v>
       </c>
     </row>
-    <row r="217" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>496</v>
       </c>
@@ -45399,7 +45558,7 @@
         <v>1181063481</v>
       </c>
     </row>
-    <row r="218" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>498</v>
       </c>
@@ -45599,7 +45758,7 @@
         <v>10748272</v>
       </c>
     </row>
-    <row r="219" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>500</v>
       </c>
@@ -45799,7 +45958,7 @@
         <v>1181162739</v>
       </c>
     </row>
-    <row r="220" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>502</v>
       </c>
@@ -45999,7 +46158,7 @@
         <v>42792053</v>
       </c>
     </row>
-    <row r="221" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>504</v>
       </c>
@@ -46199,7 +46358,7 @@
         <v>223107</v>
       </c>
     </row>
-    <row r="222" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>506</v>
       </c>
@@ -46399,7 +46558,7 @@
         <v>612985</v>
       </c>
     </row>
-    <row r="223" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>508</v>
       </c>
@@ -46599,7 +46758,7 @@
         <v>5447247</v>
       </c>
     </row>
-    <row r="224" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>510</v>
       </c>
@@ -46799,7 +46958,7 @@
         <v>2108079</v>
       </c>
     </row>
-    <row r="225" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>512</v>
       </c>
@@ -46999,7 +47158,7 @@
         <v>10415811</v>
       </c>
     </row>
-    <row r="226" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>514</v>
       </c>
@@ -47199,7 +47358,7 @@
         <v>1192271</v>
       </c>
     </row>
-    <row r="227" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>516</v>
       </c>
@@ -47399,7 +47558,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="228" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>518</v>
       </c>
@@ -47599,7 +47758,7 @@
         <v>99258</v>
       </c>
     </row>
-    <row r="229" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>520</v>
       </c>
@@ -47799,7 +47958,7 @@
         <v>21324367</v>
       </c>
     </row>
-    <row r="230" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>522</v>
       </c>
@@ -47999,7 +48158,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="231" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>524</v>
       </c>
@@ -48199,7 +48358,7 @@
         <v>17179740</v>
       </c>
     </row>
-    <row r="232" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>526</v>
       </c>
@@ -48399,7 +48558,7 @@
         <v>2097669023</v>
       </c>
     </row>
-    <row r="233" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>528</v>
       </c>
@@ -48599,7 +48758,7 @@
         <v>462341222</v>
       </c>
     </row>
-    <row r="234" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>530</v>
       </c>
@@ -48799,7 +48958,7 @@
         <v>8644829</v>
       </c>
     </row>
-    <row r="235" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>532</v>
       </c>
@@ -48999,7 +49158,7 @@
         <v>71601103</v>
       </c>
     </row>
-    <row r="236" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>534</v>
       </c>
@@ -49199,7 +49358,7 @@
         <v>9750064</v>
       </c>
     </row>
-    <row r="237" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>536</v>
       </c>
@@ -49399,7 +49558,7 @@
         <v>6341855</v>
       </c>
     </row>
-    <row r="238" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>538</v>
       </c>
@@ -49599,7 +49758,7 @@
         <v>639188695</v>
       </c>
     </row>
-    <row r="239" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>540</v>
       </c>
@@ -49799,7 +49958,7 @@
         <v>1320942</v>
       </c>
     </row>
-    <row r="240" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>542</v>
       </c>
@@ -49999,7 +50158,7 @@
         <v>413124452</v>
       </c>
     </row>
-    <row r="241" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>544</v>
       </c>
@@ -50199,7 +50358,7 @@
         <v>106017</v>
       </c>
     </row>
-    <row r="242" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>546</v>
       </c>
@@ -50399,7 +50558,7 @@
         <v>1901911604</v>
       </c>
     </row>
-    <row r="243" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>548</v>
       </c>
@@ -50599,7 +50758,7 @@
         <v>1181162739</v>
       </c>
     </row>
-    <row r="244" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>550</v>
       </c>
@@ -50799,7 +50958,7 @@
         <v>1525663</v>
       </c>
     </row>
-    <row r="245" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>552</v>
       </c>
@@ -50999,7 +51158,7 @@
         <v>12262946</v>
       </c>
     </row>
-    <row r="246" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>554</v>
       </c>
@@ -51199,7 +51358,7 @@
         <v>84775404</v>
       </c>
     </row>
-    <row r="247" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>556</v>
       </c>
@@ -51399,7 +51558,7 @@
         <v>11204</v>
       </c>
     </row>
-    <row r="248" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>558</v>
       </c>
@@ -51599,7 +51758,7 @@
         <v>63588334</v>
       </c>
     </row>
-    <row r="249" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>560</v>
       </c>
@@ -51799,7 +51958,7 @@
         <v>45853778</v>
       </c>
     </row>
-    <row r="250" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>562</v>
       </c>
@@ -51999,7 +52158,7 @@
         <v>43792855</v>
       </c>
     </row>
-    <row r="251" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>564</v>
       </c>
@@ -52199,7 +52358,7 @@
         <v>2503136362</v>
       </c>
     </row>
-    <row r="252" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>566</v>
       </c>
@@ -52399,7 +52558,7 @@
         <v>3426260</v>
       </c>
     </row>
-    <row r="253" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>568</v>
       </c>
@@ -52599,7 +52758,7 @@
         <v>331893745</v>
       </c>
     </row>
-    <row r="254" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>570</v>
       </c>
@@ -52799,7 +52958,7 @@
         <v>34915100</v>
       </c>
     </row>
-    <row r="255" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>572</v>
       </c>
@@ -52999,7 +53158,7 @@
         <v>104332</v>
       </c>
     </row>
-    <row r="256" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>574</v>
       </c>
@@ -53199,7 +53358,7 @@
         <v>28199867</v>
       </c>
     </row>
-    <row r="257" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>576</v>
       </c>
@@ -53399,7 +53558,7 @@
         <v>31122</v>
       </c>
     </row>
-    <row r="258" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>578</v>
       </c>
@@ -53599,7 +53758,7 @@
         <v>105870</v>
       </c>
     </row>
-    <row r="259" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>580</v>
       </c>
@@ -53799,7 +53958,7 @@
         <v>97468029</v>
       </c>
     </row>
-    <row r="260" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>582</v>
       </c>
@@ -53999,7 +54158,7 @@
         <v>319137</v>
       </c>
     </row>
-    <row r="261" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>584</v>
       </c>
@@ -54199,7 +54358,7 @@
         <v>7888408686</v>
       </c>
     </row>
-    <row r="262" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>586</v>
       </c>
@@ -54399,7 +54558,7 @@
         <v>218764</v>
       </c>
     </row>
-    <row r="263" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>588</v>
       </c>
@@ -54599,7 +54758,7 @@
         <v>1786038</v>
       </c>
     </row>
-    <row r="264" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>590</v>
       </c>
@@ -54799,7 +54958,7 @@
         <v>32981641</v>
       </c>
     </row>
-    <row r="265" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>592</v>
       </c>
@@ -54999,7 +55158,7 @@
         <v>59392255</v>
       </c>
     </row>
-    <row r="266" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>594</v>
       </c>
@@ -55199,7 +55358,7 @@
         <v>19473125</v>
       </c>
     </row>
-    <row r="267" spans="1:66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>596</v>
       </c>
@@ -55419,9 +55578,9 @@
       <selection sqref="A1:G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>598</v>
       </c>
@@ -55444,7 +55603,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -55472,7 +55631,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -55509,7 +55668,7 @@
         <v>4.6168296761019091E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -55542,7 +55701,7 @@
         <v>9658.3588422809462</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -55575,7 +55734,7 @@
         <v>3240.5348970458913</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -55608,7 +55767,7 @@
         <v>1.9667295397546594E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -55634,7 +55793,7 @@
         <v>3.0748092155402418E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -55660,7 +55819,7 @@
         <v>3.0449671742375006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -55686,7 +55845,7 @@
         <v>3.0071190451860241E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -55734,7 +55893,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -55782,7 +55941,7 @@
         <v>3.6700220053890349E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -55829,7 +55988,7 @@
         <v>3.8249240743992614E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -55876,7 +56035,7 @@
         <v>3.9798261434094873E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -55923,7 +56082,7 @@
         <v>4.1347282124197138E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -55970,7 +56129,7 @@
         <v>4.2896302814299403E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -55996,7 +56155,7 @@
         <v>2.6780356860887311E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -56022,7 +56181,7 @@
         <v>2.6143388798326894E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -56048,7 +56207,7 @@
         <v>2.545484518778296E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -56074,7 +56233,7 @@
         <v>2.4793750776403112E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -56100,7 +56259,7 @@
         <v>2.4225706553397286E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -56126,7 +56285,7 @@
         <v>2.3831569747546411E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -56152,7 +56311,7 @@
         <v>2.3628344598376261E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -56178,7 +56337,7 @@
         <v>2.3559175405866162E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -56204,7 +56363,7 @@
         <v>2.3541105450972877E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -56230,7 +56389,7 @@
         <v>2.3534725328216544E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -56256,7 +56415,7 @@
         <v>2.3387192464709328E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -56282,7 +56441,7 @@
         <v>2.3043644069572267E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -56308,7 +56467,7 @@
         <v>2.2709842448903395E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -56334,7 +56493,7 @@
         <v>2.2372894933599063E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -56360,7 +56519,7 @@
         <v>2.2022164945536549E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -56386,7 +56545,7 @@
         <v>2.1600454208391628E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -56412,7 +56571,7 @@
         <v>2.1443506140206514E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -56438,7 +56597,7 @@
         <v>2.1255787830698258E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -56464,7 +56623,7 @@
         <v>2.0918097363595622E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -56490,7 +56649,7 @@
         <v>2.0794462222173404E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -56516,7 +56675,7 @@
         <v>2.0665779737595313E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -56542,7 +56701,7 @@
         <v>2.054644480223633E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -56568,7 +56727,7 @@
         <v>2.0448317364777813E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -56594,7 +56753,7 @@
         <v>2.0344161471724354E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -56620,7 +56779,7 @@
         <v>2.0221061445718336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -56646,7 +56805,7 @@
         <v>2.0082996641107353E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -56672,7 +56831,7 @@
         <v>1.9914580445241858E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -56698,7 +56857,7 @@
         <v>1.9752935889325141E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -56724,7 +56883,7 @@
         <v>1.9590176359283618E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -56750,7 +56909,7 @@
         <v>1.9422683187065637E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -56776,7 +56935,7 @@
         <v>1.9393652517846416E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -56802,7 +56961,7 @@
         <v>1.9288005374754391E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -56828,7 +56987,7 @@
         <v>1.8967786977580392E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -56854,7 +57013,7 @@
         <v>1.8714452677736304E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -56880,7 +57039,7 @@
         <v>1.8551620316271E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -56906,7 +57065,7 @@
         <v>1.8329596861592634E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -56932,7 +57091,7 @@
         <v>1.8057826964133605E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -56958,7 +57117,7 @@
         <v>1.7953608231775053E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -56984,7 +57143,7 @@
         <v>1.794357538779523E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -57010,7 +57169,7 @@
         <v>1.7762037592859548E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -57036,7 +57195,7 @@
         <v>1.7594142281311509E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -57062,7 +57221,7 @@
         <v>1.7564833098598909E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -57088,7 +57247,7 @@
         <v>1.7496908720251891E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -57114,7 +57273,7 @@
         <v>1.7317730065250281E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -57140,7 +57299,7 @@
         <v>1.6892318306627629E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -57166,7 +57325,7 @@
         <v>1.6151952281432846E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -57192,7 +57351,7 @@
         <v>1.4616310047980807E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -57224,16 +57383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CBE177-ED79-4759-AD45-50883F599728}">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CBE177-ED79-4759-AD45-50883F599728}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>598</v>
       </c>
@@ -57247,16 +57406,28 @@
         <v>603</v>
       </c>
       <c r="E1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G1" t="s">
         <v>604</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>605</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J1" t="s">
+        <v>610</v>
+      </c>
+      <c r="K1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -57269,16 +57440,26 @@
       <c r="D2">
         <v>1126989</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
+        <v>0.19958499263981877</v>
+      </c>
+      <c r="F2">
+        <v>2347939707.2668953</v>
+      </c>
+      <c r="G2">
         <f>+B2/D2</f>
         <v>507.10432638422498</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <f>+C2/D2</f>
         <v>2723.05976927247</v>
       </c>
+      <c r="I2">
+        <f>+F2/D2</f>
+        <v>2083.3741121403095</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -57291,20 +57472,34 @@
       <c r="D3">
         <v>1160832</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E63" si="0">+B3/D3</f>
+      <c r="E3" s="6">
+        <v>0.2370453517650227</v>
+      </c>
+      <c r="F3">
+        <v>2516193857.9355516</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G63" si="0">+B3/D3</f>
         <v>625.20298902706088</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F63" si="1">+C3/D3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H63" si="1">+C3/D3</f>
         <v>2932.5347084104155</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3">
+        <f t="shared" ref="I3:I63" si="2">+F3/D3</f>
+        <v>2167.5779595458703</v>
+      </c>
+      <c r="J3" s="4">
+        <f>+C3/C2-1</f>
+        <v>0.10926594841623016</v>
+      </c>
+      <c r="K3" s="4">
         <f>+D3/D2-1</f>
         <v>3.0029574379164314E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -57317,20 +57512,34 @@
       <c r="D4">
         <v>1196289</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
+        <v>0.25708883122746107</v>
+      </c>
+      <c r="F4">
+        <v>2671749662.116703</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>683.47547712824382</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>3080.2304654494687</v>
       </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G63" si="2">+D4/D3-1</f>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2233.3647321982421</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J63" si="3">+C4/C3-1</f>
+        <v>8.2447368199746629E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K63" si="4">+D4/D3-1</f>
         <v>3.0544471551438912E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -57343,20 +57552,34 @@
       <c r="D5">
         <v>1233267</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
+        <v>0.23690712791987101</v>
+      </c>
+      <c r="F5">
+        <v>2958099192.1518006</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>745.00073998157893</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>3243.0017390521066</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5">
         <f t="shared" si="2"/>
+        <v>2398.5878095755425</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5387887993979783E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="4"/>
         <v>3.091059100267568E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -57369,20 +57592,34 @@
       <c r="D6">
         <v>1271461</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
+        <v>0.23094258427147252</v>
+      </c>
+      <c r="F6">
+        <v>3148575600.4970393</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>658.97762254990107</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>3285.0000941894127</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6">
         <f t="shared" si="2"/>
+        <v>2476.3446149720985</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
+        <v>4.4321303682907986E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="4"/>
         <v>3.0969773779724985E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -57395,20 +57632,34 @@
       <c r="D7">
         <v>1310556</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
+        <v>0.23994736331523839</v>
+      </c>
+      <c r="F7">
+        <v>3412703024.0306478</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>725.50571642366504</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>3478.9366299259027</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7">
         <f t="shared" si="2"/>
+        <v>2604.0115981542549</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>9.1600362620539499E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="4"/>
         <v>3.0748092155402418E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -57421,20 +57672,34 @@
       <c r="D8">
         <v>1350462</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
+        <v>0.27450854997615287</v>
+      </c>
+      <c r="F8">
+        <v>3496512565.2042556</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>937.50770524720269</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>3632.0927646682217</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8">
         <f t="shared" si="2"/>
+        <v>2589.1232520457856</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
+        <v>7.5814018828488816E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="4"/>
         <v>3.0449671742375006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -57447,20 +57712,34 @@
       <c r="D9">
         <v>1391072</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
+        <v>0.28199434944571444</v>
+      </c>
+      <c r="F9">
+        <v>3787941585.0687914</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>960.43271658652009</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>3827.6414249172453</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9">
         <f t="shared" si="2"/>
+        <v>2723.0377615743769</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5529311789897644E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="4"/>
         <v>3.0071190451860241E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -57473,20 +57752,34 @@
       <c r="D10">
         <v>1432255</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
+        <v>0.30887315687553574</v>
+      </c>
+      <c r="F10">
+        <v>3907306799.0246406</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>1056.4073204908409</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>3976.971699006001</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10">
         <f t="shared" si="2"/>
+        <v>2728.080403995546</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9773886237350702E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="4"/>
         <v>2.9605225322628881E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -57499,20 +57792,34 @@
       <c r="D11">
         <v>1473965</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
+        <v>0.30212059110180195</v>
+      </c>
+      <c r="F11">
+        <v>4333973966.1027622</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>1175.2004479739207</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>4190.6438089368994</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I11">
         <f t="shared" si="2"/>
+        <v>2940.3506637557625</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4413891687740161E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="4"/>
         <v>2.9121909157238113E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -57525,20 +57832,34 @@
       <c r="D12">
         <v>1516188</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
+        <v>0.30767470827673354</v>
+      </c>
+      <c r="F12">
+        <v>4598101389.6363707</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>1346.5062849204642</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>4357.4570671922747</v>
       </c>
-      <c r="G12" s="4">
+      <c r="I12">
         <f t="shared" si="2"/>
+        <v>3032.6723266747731</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9592261077993545E-2</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="4"/>
         <v>2.8645863368533142E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -57551,20 +57872,34 @@
       <c r="D13">
         <v>1559072</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
+        <v>0.32708883396027028</v>
+      </c>
+      <c r="F13">
+        <v>4967809908.3275356</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>1607.0129025330207</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>4645.0938739149524</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13">
         <f t="shared" si="2"/>
+        <v>3186.3890239370189</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>9.6161375784047154E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="4"/>
         <v>2.828409141874233E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -57577,20 +57912,34 @@
       <c r="D14">
         <v>1602646</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
+        <v>0.32964954171170191</v>
+      </c>
+      <c r="F14">
+        <v>5143123317.3815336</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>1789.5961189616792</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>4725.8875124607011</v>
       </c>
-      <c r="G14" s="4">
+      <c r="I14">
         <f t="shared" si="2"/>
+        <v>3209.1449499025571</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5828125052524538E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="4"/>
         <v>2.7948677161798718E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -57603,20 +57952,34 @@
       <c r="D15">
         <v>1646580</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
+        <v>0.35496746932035611</v>
+      </c>
+      <c r="F15">
+        <v>5274906625.0148888</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>1808.1357271773381</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>4846.5386047456177</v>
       </c>
-      <c r="G15" s="4">
+      <c r="I15">
         <f t="shared" si="2"/>
+        <v>3203.5531981530739</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>5.3643102172053592E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="4"/>
         <v>2.7413415064836633E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -57629,20 +57992,34 @@
       <c r="D16">
         <v>1690676</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
+        <v>0.30528998756847531</v>
+      </c>
+      <c r="F16">
+        <v>5756124049.7350054</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>1671.7806094818015</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>4835.6957009655334</v>
       </c>
-      <c r="G16" s="4">
+      <c r="I16">
         <f t="shared" si="2"/>
+        <v>3404.6287104891803</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4483195624655396E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="4"/>
         <v>2.6780356860887311E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -57655,20 +58032,34 @@
       <c r="D17">
         <v>1734876</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
+        <v>0.29899481547294238</v>
+      </c>
+      <c r="F17">
+        <v>5768050150.5230713</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>1571.6532120266056</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>4794.5358525872934</v>
       </c>
-      <c r="G17" s="4">
+      <c r="I17">
         <f t="shared" si="2"/>
+        <v>3324.762202326317</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7409194401264427E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="4"/>
         <v>2.6143388798326894E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -57681,20 +58072,34 @@
       <c r="D18">
         <v>1779037</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
+        <v>0.3087463960131463</v>
+      </c>
+      <c r="F18">
+        <v>5821717452.7459173</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>1518.1089076834694</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>4753.3434281442269</v>
       </c>
-      <c r="G18" s="4">
+      <c r="I18">
         <f t="shared" si="2"/>
+        <v>3272.3981866290119</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6644613597298408E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="4"/>
         <v>2.545484518778296E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -57707,20 +58112,34 @@
       <c r="D19">
         <v>1823146</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
+        <v>0.26700473756728677</v>
+      </c>
+      <c r="F19">
+        <v>6186655621.915926</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>1029.9942781293851</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>4689.0862012737507</v>
       </c>
-      <c r="G19" s="4">
+      <c r="I19">
         <f t="shared" si="2"/>
+        <v>3393.3956040360595</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0940258905988376E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="4"/>
         <v>2.4793750776403112E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -57733,20 +58152,34 @@
       <c r="D20">
         <v>1867313</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
+        <v>0.28422041753229543</v>
+      </c>
+      <c r="F20">
+        <v>6788922803.1791143</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>1255.9826049549906</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>5026.5011735593935</v>
       </c>
-      <c r="G20" s="4">
+      <c r="I20">
         <f t="shared" si="2"/>
+        <v>3635.6640815862761</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="3"/>
+        <v>9.7926439181660996E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="4"/>
         <v>2.4225706553397286E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -57759,20 +58192,34 @@
       <c r="D21">
         <v>1911814</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
+        <v>0.25967604284415963</v>
+      </c>
+      <c r="F21">
+        <v>7159824022.7431555</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>1322.5282924478481</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>5131.1517878539444</v>
       </c>
-      <c r="G21" s="4">
+      <c r="I21">
         <f t="shared" si="2"/>
+        <v>3745.0421551171585</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5147510798518642E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="4"/>
         <v>2.3831569747546411E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -57785,20 +58232,34 @@
       <c r="D22">
         <v>1956987</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
+        <v>0.30489719481629124</v>
+      </c>
+      <c r="F22">
+        <v>7513432441.5615368</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>1523.1734675482817</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>5668.5968463506115</v>
       </c>
-      <c r="G22" s="4">
+      <c r="I22">
         <f t="shared" si="2"/>
+        <v>3839.2858212964811</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="3"/>
+        <v>0.13084481729048747</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="4"/>
         <v>2.3628344598376261E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -57811,20 +58272,34 @@
       <c r="D23">
         <v>2003092</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
+        <v>0.27576678749503464</v>
+      </c>
+      <c r="F23">
+        <v>8759952716.311512</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="0"/>
         <v>1638.8499056352293</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>6048.0076828299198</v>
       </c>
-      <c r="G23" s="4">
+      <c r="I23">
         <f t="shared" si="2"/>
+        <v>4373.2153671980677</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="3"/>
+        <v>9.2068094535796341E-2</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="4"/>
         <v>2.3559175405866162E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -57837,20 +58312,34 @@
       <c r="D24">
         <v>2050247</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
+        <v>0.32377652487546338</v>
+      </c>
+      <c r="F24">
+        <v>8418300949.2989368</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>1585.7005209431904</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>6224.9407524561002</v>
       </c>
-      <c r="G24" s="4">
+      <c r="I24">
         <f t="shared" si="2"/>
+        <v>4105.9935458015234</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="3"/>
+        <v>5.3484564383762478E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="4"/>
         <v>2.3541105450972877E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -57863,20 +58352,34 @@
       <c r="D25">
         <v>2098499</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
+        <v>0.25129769442390426</v>
+      </c>
+      <c r="F25">
+        <v>8818978551.3279762</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>970.08690850234734</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>5808.6509776280327</v>
       </c>
-      <c r="G25" s="4">
+      <c r="I25">
         <f t="shared" si="2"/>
+        <v>4202.5173952086589</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.4913643464285613E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="4"/>
         <v>2.3534725328216544E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -57889,20 +58392,34 @@
       <c r="D26">
         <v>2147577</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
+        <v>0.15434320778655439</v>
+      </c>
+      <c r="F26">
+        <v>9938142698.1290112</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>910.49682881161323</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>5829.6946613791943</v>
       </c>
-      <c r="G26" s="4">
+      <c r="I26">
         <f t="shared" si="2"/>
+        <v>4627.60715826674</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7094737730582796E-2</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="4"/>
         <v>2.3387192464709328E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -57915,20 +58432,34 @@
       <c r="D27">
         <v>2197065</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
+        <v>0.15743062110164016</v>
+      </c>
+      <c r="F27">
+        <v>10717108823.758759</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="0"/>
         <v>853.64102691330038</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>5980.010557887661</v>
       </c>
-      <c r="G27" s="4">
+      <c r="I27">
         <f t="shared" si="2"/>
+        <v>4877.9206913581338</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="3"/>
+        <v>4.9422336515400289E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="4"/>
         <v>2.3043644069572267E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -57941,20 +58472,34 @@
       <c r="D28">
         <v>2246960</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
+        <v>0.18603476677910147</v>
+      </c>
+      <c r="F28">
+        <v>11183499915.528215</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="0"/>
         <v>1073.6505185117769</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>6055.8375538719147</v>
       </c>
-      <c r="G28" s="4">
+      <c r="I28">
         <f t="shared" si="2"/>
+        <v>4977.1691153951188</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5677882281900386E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="4"/>
         <v>2.2709842448903395E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -57967,20 +58512,34 @@
       <c r="D29">
         <v>2297231</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
+        <v>0.189347418655686</v>
+      </c>
+      <c r="F29">
+        <v>11172160031.99461</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="0"/>
         <v>1076.1997341975009</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>5816.159761400384</v>
       </c>
-      <c r="G29" s="4">
+      <c r="I29">
         <f t="shared" si="2"/>
+        <v>4863.3158929139518</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.8090554813949167E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="4"/>
         <v>2.2372894933599063E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -57993,20 +58552,34 @@
       <c r="D30">
         <v>2347821</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
+        <v>0.15542554043233231</v>
+      </c>
+      <c r="F30">
+        <v>9914299722.387579</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="0"/>
         <v>402.54533636299772</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>4929.4103826441124</v>
       </c>
-      <c r="G30" s="4">
+      <c r="I30">
         <f t="shared" si="2"/>
+        <v>4222.7664384923637</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.13379843782662426</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="4"/>
         <v>2.2022164945536549E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -58019,20 +58592,34 @@
       <c r="D31">
         <v>2398535</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
+        <v>5.2204490424197149E-2</v>
+      </c>
+      <c r="F31">
+        <v>11530967120.024662</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="0"/>
         <v>286.32996495391671</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>4900.5655078872169</v>
       </c>
-      <c r="G31" s="4">
+      <c r="I31">
         <f t="shared" si="2"/>
+        <v>4807.5042140409296</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5622470054955873E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="4"/>
         <v>2.1600454208391628E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -58045,20 +58632,34 @@
       <c r="D32">
         <v>2449968</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
+        <v>0.16406456545394155</v>
+      </c>
+      <c r="F32">
+        <v>10398136823.961748</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>1009.6241961337439</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>5186.250569676803</v>
       </c>
-      <c r="G32" s="4">
+      <c r="I32">
         <f t="shared" si="2"/>
+        <v>4244.1929135244818</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="3"/>
+        <v>8.0989930057319803E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="4"/>
         <v>2.1443506140206514E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -58071,20 +58672,34 @@
       <c r="D33">
         <v>2502044</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
+        <v>0.14757466967919589</v>
+      </c>
+      <c r="F33">
+        <v>12051440963.351328</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="0"/>
         <v>1092.5681259318108</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>5556.6331833184422</v>
       </c>
-      <c r="G33" s="4">
+      <c r="I33">
         <f t="shared" si="2"/>
+        <v>4816.6383018649267</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="3"/>
+        <v>9.4190055624272517E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="4"/>
         <v>2.1255787830698258E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -58097,20 +58712,34 @@
       <c r="D34">
         <v>2554382</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
+        <v>0.19549586931670376</v>
+      </c>
+      <c r="F34">
+        <v>12578020755.960005</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="0"/>
         <v>1483.645528955863</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>5889.1800330227034</v>
       </c>
-      <c r="G34" s="4">
+      <c r="I34">
         <f t="shared" si="2"/>
+        <v>4924.0954391159994</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="3"/>
+        <v>8.2016803339644673E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="4"/>
         <v>2.0918097363595622E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -58123,20 +58752,34 @@
       <c r="D35">
         <v>2607499</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
+        <v>0.20797258629560267</v>
+      </c>
+      <c r="F35">
+        <v>13075524044.330202</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="0"/>
         <v>1653.4150122121926</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <f t="shared" si="1"/>
         <v>6083.9658470087652</v>
       </c>
-      <c r="G35" s="4">
+      <c r="I35">
         <f t="shared" si="2"/>
+        <v>5014.5844904754331</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4557444355758378E-2</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="4"/>
         <v>2.0794462222173404E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -58149,20 +58792,34 @@
       <c r="D36">
         <v>2661385</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
+        <v>0.23799892449670915</v>
+      </c>
+      <c r="F36">
+        <v>12789699712.593626</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="0"/>
         <v>1851.888095406774</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>6130.6726746241739</v>
       </c>
-      <c r="G36" s="4">
+      <c r="I36">
         <f t="shared" si="2"/>
+        <v>4805.6555938331458</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8501468139854991E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="4"/>
         <v>2.0665779737595313E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -58175,20 +58832,34 @@
       <c r="D37">
         <v>2716067</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
+        <v>0.25620048361709818</v>
+      </c>
+      <c r="F37">
+        <v>12372738924.004366</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="0"/>
         <v>2010.5231293738707</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <f t="shared" si="1"/>
         <v>6112.4727809351925</v>
       </c>
-      <c r="G37" s="4">
+      <c r="I37">
         <f t="shared" si="2"/>
+        <v>4555.3879650260342</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7516787571155046E-2</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="4"/>
         <v>2.054644480223633E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -58201,20 +58872,34 @@
       <c r="D38">
         <v>2771606</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
+        <v>0.26139973338720435</v>
+      </c>
+      <c r="F38">
+        <v>12575920327.129044</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="0"/>
         <v>2117.2278028667765</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>6234.3613298914988</v>
       </c>
-      <c r="G38" s="4">
+      <c r="I38">
         <f t="shared" si="2"/>
+        <v>4537.412722850594</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0797032057862559E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="4"/>
         <v>2.0448317364777813E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -58227,20 +58912,34 @@
       <c r="D39">
         <v>2827992</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
+        <v>0.2828031366509885</v>
+      </c>
+      <c r="F39">
+        <v>13430188974.103151</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="0"/>
         <v>2162.6829669329773</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <f t="shared" si="1"/>
         <v>6504.8275572423909</v>
       </c>
-      <c r="G39" s="4">
+      <c r="I39">
         <f t="shared" si="2"/>
+        <v>4749.0194364422359</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="3"/>
+        <v>6.4609904400289908E-2</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="4"/>
         <v>2.0344161471724354E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -58253,20 +58952,34 @@
       <c r="D40">
         <v>2885177</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
+        <v>0.2336661205009925</v>
+      </c>
+      <c r="F40">
+        <v>15594898078.063766</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="0"/>
         <v>2351.4996960740759</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <f t="shared" si="1"/>
         <v>6843.9868396603943</v>
       </c>
-      <c r="G40" s="4">
+      <c r="I40">
         <f t="shared" si="2"/>
+        <v>5405.1789814156173</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="3"/>
+        <v>7.3415007028858836E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="4"/>
         <v>2.0221061445718336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -58279,20 +58992,34 @@
       <c r="D41">
         <v>2943120</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="6">
+        <v>0.22660388709807699</v>
+      </c>
+      <c r="F41">
+        <v>15690441330.803083</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="0"/>
         <v>2386.8844554309644</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>6972.0600838301234</v>
       </c>
-      <c r="G41" s="4">
+      <c r="I41">
         <f t="shared" si="2"/>
+        <v>5331.2271775541203</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9172065887284724E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="4"/>
         <v>2.0082996641107353E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -58305,20 +59032,34 @@
       <c r="D42">
         <v>3001731</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="6">
+        <v>0.25018030146824866</v>
+      </c>
+      <c r="F42">
+        <v>15717418296.348545</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="0"/>
         <v>2124.6524704700187</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <f t="shared" si="1"/>
         <v>7021.5464497813673</v>
       </c>
-      <c r="G42" s="4">
+      <c r="I42">
         <f t="shared" si="2"/>
+        <v>5236.1181919194441</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7153741548282095E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="4"/>
         <v>1.9914580445241858E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -58331,20 +59072,34 @@
       <c r="D43">
         <v>3061024</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="6">
+        <v>0.22493938456344961</v>
+      </c>
+      <c r="F43">
+        <v>16335076854.847403</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="0"/>
         <v>1579.6796736972269</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>6925.0786460012296</v>
       </c>
-      <c r="G43" s="4">
+      <c r="I43">
         <f t="shared" si="2"/>
+        <v>5336.4746094272386</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="3"/>
+        <v>5.7427279063453351E-3</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="4"/>
         <v>1.9752935889325141E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -58357,20 +59112,34 @@
       <c r="D44">
         <v>3120990</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="6">
+        <v>0.18893407379278856</v>
+      </c>
+      <c r="F44">
+        <v>17526800356.263531</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="0"/>
         <v>1465.2115402677327</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>6943.426055279665</v>
       </c>
-      <c r="G44" s="4">
+      <c r="I44">
         <f t="shared" si="2"/>
+        <v>5615.7822858335112</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2291494166372772E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="4"/>
         <v>1.9590176359283618E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -58383,20 +59152,34 @@
       <c r="D45">
         <v>3181608</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="6">
+        <v>0.22100013544636676</v>
+      </c>
+      <c r="F45">
+        <v>18809645795.260036</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="0"/>
         <v>1710.9602709596143</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>7097.5775561961054</v>
       </c>
-      <c r="G45" s="4">
+      <c r="I45">
         <f t="shared" si="2"/>
+        <v>5911.9934936233612</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2054959448157403E-2</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="4"/>
         <v>1.9422683187065637E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -58409,20 +59192,34 @@
       <c r="D46">
         <v>3243311</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="6">
+        <v>0.20411003738085204</v>
+      </c>
+      <c r="F46">
+        <v>19551323267.625702</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="0"/>
         <v>1844.0002813104986</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <f t="shared" si="1"/>
         <v>7486.2767439264462</v>
       </c>
-      <c r="G46" s="4">
+      <c r="I46">
         <f t="shared" si="2"/>
+        <v>6028.1987350660183</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="3"/>
+        <v>7.5220796578461924E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="4"/>
         <v>1.9393652517846416E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -58435,20 +59232,34 @@
       <c r="D47">
         <v>3305868</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="6">
+        <v>0.22858505315424224</v>
+      </c>
+      <c r="F47">
+        <v>21127973273.366982</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="0"/>
         <v>1860.5996529721517</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <f t="shared" si="1"/>
         <v>7872.7854925202309</v>
       </c>
-      <c r="G47" s="4">
+      <c r="I47">
         <f t="shared" si="2"/>
+        <v>6391.0516915276057</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1912794023353488E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="4"/>
         <v>1.9288005374754391E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -58461,20 +59272,34 @@
       <c r="D48">
         <v>3368573</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="6">
+        <v>0.25474716178634593</v>
+      </c>
+      <c r="F48">
+        <v>22091835555.429153</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="0"/>
         <v>2073.1874998523153</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <f t="shared" si="1"/>
         <v>8394.7457997928195</v>
       </c>
-      <c r="G48" s="4">
+      <c r="I48">
         <f t="shared" si="2"/>
+        <v>6558.2178434099997</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6524656105666953E-2</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="4"/>
         <v>1.8967786977580392E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -58487,20 +59312,34 @@
       <c r="D49">
         <v>3431614</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="6">
+        <v>0.29390913052987711</v>
+      </c>
+      <c r="F49">
+        <v>22308212808.478062</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="0"/>
         <v>2826.8844322922109</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <f t="shared" si="1"/>
         <v>9228.072582713583</v>
       </c>
-      <c r="G49" s="4">
+      <c r="I49">
         <f t="shared" si="2"/>
+        <v>6500.7931569454086</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11983985394787067</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="4"/>
         <v>1.8714452677736304E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -58513,20 +59352,34 @@
       <c r="D50">
         <v>3495276</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="6">
+        <v>0.31808014128350054</v>
+      </c>
+      <c r="F50">
+        <v>23569421509.454895</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="0"/>
         <v>3557.9847377409933</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <f t="shared" si="1"/>
         <v>9952.9168318162683</v>
       </c>
-      <c r="G50" s="4">
+      <c r="I50">
         <f t="shared" si="2"/>
+        <v>6743.2218541411021</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="3"/>
+        <v>9.8556548515846387E-2</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="4"/>
         <v>1.8551620316271E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -58539,20 +59392,34 @@
       <c r="D51">
         <v>3559343</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="6">
+        <v>0.32078963365204494</v>
+      </c>
+      <c r="F51">
+        <v>24326767473.85627</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="0"/>
         <v>2746.245092565317</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <f t="shared" si="1"/>
         <v>9895.2547922446174</v>
       </c>
-      <c r="G51" s="4">
+      <c r="I51">
         <f t="shared" si="2"/>
+        <v>6834.622983470902</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2429923177641911E-2</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="4"/>
         <v>1.8329596861592634E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -58565,20 +59432,34 @@
       <c r="D52">
         <v>3623617</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="6">
+        <v>0.30023102084097847</v>
+      </c>
+      <c r="F52">
+        <v>25994047922.045765</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="0"/>
         <v>3583.7909310215468</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <f t="shared" si="1"/>
         <v>10286.203121690214</v>
       </c>
-      <c r="G52" s="4">
+      <c r="I52">
         <f t="shared" si="2"/>
+        <v>7173.508657798483</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8279934942856881E-2</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="4"/>
         <v>1.8057826964133605E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -58591,20 +59472,34 @@
       <c r="D53">
         <v>3688674</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="6">
+        <v>0.32610710817550703</v>
+      </c>
+      <c r="F53">
+        <v>27447829095.671768</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="0"/>
         <v>4005.8286218236603</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <f t="shared" si="1"/>
         <v>11248.003416461775</v>
       </c>
-      <c r="G53" s="4">
+      <c r="I53">
         <f t="shared" si="2"/>
+        <v>7441.110029151876</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="3"/>
+        <v>0.1131362590970455</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="4"/>
         <v>1.7953608231775053E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -58617,20 +59512,34 @@
       <c r="D54">
         <v>3754862</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="6">
+        <v>0.36012634276286987</v>
+      </c>
+      <c r="F54">
+        <v>28355326379.517036</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="0"/>
         <v>4933.1408312268868</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <f t="shared" si="1"/>
         <v>12130.228641668629</v>
       </c>
-      <c r="G54" s="4">
+      <c r="I54">
         <f t="shared" si="2"/>
+        <v>7551.6294285960539</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="3"/>
+        <v>9.7784900714033895E-2</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="4"/>
         <v>1.794357538779523E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -58643,20 +59552,34 @@
       <c r="D55">
         <v>3821556</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="6">
+        <v>0.3669722959918772</v>
+      </c>
+      <c r="F55">
+        <v>30322460040.618755</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="0"/>
         <v>5356.3954059253529</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <f t="shared" si="1"/>
         <v>12741.380447123503</v>
       </c>
-      <c r="G55" s="4">
+      <c r="I55">
         <f t="shared" si="2"/>
+        <v>7934.5847713912226</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="3"/>
+        <v>6.903948051439257E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="4"/>
         <v>1.7762037592859548E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -58669,20 +59592,34 @@
       <c r="D56">
         <v>3888793</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="6">
+        <v>0.3593288649757419</v>
+      </c>
+      <c r="F56">
+        <v>32287411411.58242</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="0"/>
         <v>5587.2137338102648</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <f t="shared" si="1"/>
         <v>13155.453670718029</v>
       </c>
-      <c r="G56" s="4">
+      <c r="I56">
         <f t="shared" si="2"/>
+        <v>8302.6819405358983</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="3"/>
+        <v>5.0664223545579423E-2</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="4"/>
         <v>1.7594142281311509E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -58695,20 +59632,34 @@
       <c r="D57">
         <v>3957099</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="6">
+        <v>0.38189337385703565</v>
+      </c>
+      <c r="F57">
+        <v>33434500000</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="0"/>
         <v>5844.5088182024256</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <f t="shared" si="1"/>
         <v>13669.559442409705</v>
       </c>
-      <c r="G57" s="4">
+      <c r="I57">
         <f t="shared" si="2"/>
+        <v>8449.2452678085647</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="3"/>
+        <v>5.7330542960120967E-2</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="4"/>
         <v>1.7564833098598909E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -58721,20 +59672,34 @@
       <c r="D58">
         <v>4026336</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="6">
+        <v>0.37036870744305161</v>
+      </c>
+      <c r="F58">
+        <v>35973333353.223831</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="0"/>
         <v>5717.1751069327056</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <f t="shared" si="1"/>
         <v>14099.936323345355</v>
       </c>
-      <c r="G58" s="4">
+      <c r="I58">
         <f t="shared" si="2"/>
+        <v>8934.508534117329</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="3"/>
+        <v>4.9532114227905932E-2</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="4"/>
         <v>1.7496908720251891E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -58747,20 +59712,34 @@
       <c r="D59">
         <v>4096063</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="6">
+        <v>0.37910507421703554</v>
+      </c>
+      <c r="F59">
+        <v>37171859658.638153</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="0"/>
         <v>6082.002005256074</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <f t="shared" si="1"/>
         <v>14634.842502533093</v>
       </c>
-      <c r="G59" s="4">
+      <c r="I59">
         <f t="shared" si="2"/>
+        <v>9075.0214678431839</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="3"/>
+        <v>5.5911488755363115E-2</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="4"/>
         <v>1.7317730065250281E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -58773,20 +59752,34 @@
       <c r="D60">
         <v>4165255</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="6">
+        <v>0.37072436215335425</v>
+      </c>
+      <c r="F60">
+        <v>38773515988.461731</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="0"/>
         <v>6105.4545608627541</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <f t="shared" si="1"/>
         <v>14922.129999715798</v>
       </c>
-      <c r="G60" s="4">
+      <c r="I60">
         <f t="shared" si="2"/>
+        <v>9308.797657877305</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6854299378857425E-2</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="4"/>
         <v>1.6892318306627629E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -58799,20 +59792,34 @@
       <c r="D61">
         <v>4232532</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="6">
+        <v>0.35736049289088201</v>
+      </c>
+      <c r="F61">
+        <v>40711423016.458008</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="0"/>
         <v>5737.4358780101529</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <f t="shared" si="1"/>
         <v>15122.517274072034</v>
       </c>
-      <c r="G61" s="4">
+      <c r="I61">
         <f t="shared" si="2"/>
+        <v>9618.6923138343682</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="3"/>
+        <v>2.979772001387615E-2</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="4"/>
         <v>1.6151952281432846E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -58825,20 +59832,34 @@
       <c r="D62">
         <v>4294396</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="6">
+        <v>0.29197680493543549</v>
+      </c>
+      <c r="F62">
+        <v>36649915528.317802</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="0"/>
         <v>2820.1939859663803</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <f t="shared" si="1"/>
         <v>12230.039589475309</v>
       </c>
-      <c r="G62" s="4">
+      <c r="I62">
         <f t="shared" si="2"/>
+        <v>8534.3586218685468</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.17944893597249323</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="4"/>
         <v>1.4616310047980807E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -58851,20 +59872,35 @@
       <c r="D63">
         <v>4351267</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="6">
+        <v>0.34943812681687475</v>
+      </c>
+      <c r="F63">
+        <v>39462124421.166626</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="0"/>
         <v>3635.7346929569612</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <f t="shared" si="1"/>
         <v>13921.262742727364</v>
       </c>
-      <c r="G63" s="4">
+      <c r="I63">
         <f t="shared" si="2"/>
+        <v>9069.1112315485643</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15335873929070942</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="4"/>
         <v>1.3243073065455579E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GDP/simple_golden_rule_pan.xlsx
+++ b/GDP/simple_golden_rule_pan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suramericana-my.sharepoint.com/personal/dgutierrezv_sura_com/Documents/Documents/GitHub/macro/GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{5C334686-4CE3-4EB5-8BDA-CC65A366C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E7C006-51C5-4DBA-A963-9B6BEBEC4495}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{5C334686-4CE3-4EB5-8BDA-CC65A366C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59542AC6-78DB-4419-9B24-EC11FDC084E7}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{38870D0C-4BAA-46FD-B714-AFC6A4ED00F5}"/>
   </bookViews>
@@ -57386,11 +57386,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CBE177-ED79-4759-AD45-50883F599728}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/GDP/simple_golden_rule_pan.xlsx
+++ b/GDP/simple_golden_rule_pan.xlsx
@@ -57386,8 +57386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CBE177-ED79-4759-AD45-50883F599728}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GDP/simple_golden_rule_pan.xlsx
+++ b/GDP/simple_golden_rule_pan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suramericana-my.sharepoint.com/personal/dgutierrezv_sura_com/Documents/Documents/GitHub/macro/GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{5C334686-4CE3-4EB5-8BDA-CC65A366C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59542AC6-78DB-4419-9B24-EC11FDC084E7}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{5C334686-4CE3-4EB5-8BDA-CC65A366C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98E7E400-7B1C-4171-B066-8BFA4C02AE72}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{38870D0C-4BAA-46FD-B714-AFC6A4ED00F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{38870D0C-4BAA-46FD-B714-AFC6A4ED00F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="615">
   <si>
     <t>Country Name</t>
   </si>
@@ -2010,6 +2010,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>y_growth</t>
+  </si>
+  <si>
+    <t>k_growth</t>
   </si>
 </sst>
 </file>
@@ -57384,18 +57390,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CBE177-ED79-4759-AD45-50883F599728}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>598</v>
       </c>
@@ -57427,10 +57433,16 @@
         <v>610</v>
       </c>
       <c r="K1" t="s">
+        <v>614</v>
+      </c>
+      <c r="L1" t="s">
+        <v>613</v>
+      </c>
+      <c r="M1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -57462,7 +57474,7 @@
         <v>2083.3741121403095</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -57498,11 +57510,19 @@
         <v>0.10926594841623016</v>
       </c>
       <c r="K3" s="4">
+        <f>+G3/G2-1</f>
+        <v>0.23288829634901287</v>
+      </c>
+      <c r="L3" s="4">
+        <f>+H3/H2-1</f>
+        <v>7.6926309698267081E-2</v>
+      </c>
+      <c r="M3" s="4">
         <f>+D3/D2-1</f>
         <v>3.0029574379164314E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -57538,11 +57558,19 @@
         <v>8.2447368199746629E-2</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K63" si="4">+D4/D3-1</f>
+        <f t="shared" ref="K4:K63" si="4">+G4/G3-1</f>
+        <v>9.320570938386985E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L63" si="5">+H4/H3-1</f>
+        <v>5.0364538436822759E-2</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M63" si="6">+D4/D3-1</f>
         <v>3.0544471551438912E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -57579,10 +57607,18 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="4"/>
+        <v>9.0018244856195251E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2843861986439533E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="6"/>
         <v>3.091059100267568E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -57619,10 +57655,18 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="4"/>
+        <v>-0.1154671570310184</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2950457174155439E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="6"/>
         <v>3.0969773779724985E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -57659,10 +57703,18 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" si="4"/>
+        <v>0.10095652962589963</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="5"/>
+        <v>5.9036995487315114E-2</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="6"/>
         <v>3.0748092155402418E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -57699,10 +57751,18 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" si="4"/>
+        <v>0.29221270628795071</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="5"/>
+        <v>4.4023835739020356E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="6"/>
         <v>3.0449671742375006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -57739,10 +57799,18 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" si="4"/>
+        <v>2.4453144449914088E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="5"/>
+        <v>5.3839115055445586E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="6"/>
         <v>3.0071190451860241E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -57779,10 +57847,18 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="4"/>
+        <v>9.9928503316114359E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9013652929096976E-2</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="6"/>
         <v>2.9605225322628881E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -57819,10 +57895,18 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="4"/>
+        <v>0.11245011765715973</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="5"/>
+        <v>5.3727339820975661E-2</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="6"/>
         <v>2.9121909157238113E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -57859,10 +57943,18 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="4"/>
+        <v>0.1457673346209829</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9806117117286766E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="6"/>
         <v>2.8645863368533142E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -57899,10 +57991,18 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="4"/>
+        <v>0.19346854933391144</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="5"/>
+        <v>6.6010244573222243E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="6"/>
         <v>2.828409141874233E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -57939,10 +58039,18 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="4"/>
+        <v>0.11361652177208126</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="5"/>
+        <v>1.7393327398495639E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="6"/>
         <v>2.7948677161798718E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -57979,10 +58087,18 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="4"/>
+        <v>1.0359660495025791E-2</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5529827353443668E-2</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="6"/>
         <v>2.7413415064836633E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -58019,10 +58135,18 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="4"/>
+        <v>-7.5411992388646154E-2</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.2372469641461779E-3</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="6"/>
         <v>2.6780356860887311E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -58059,10 +58183,18 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="4"/>
+        <v>-5.9892665872127937E-2</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="5"/>
+        <v>-8.511670486218037E-3</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="6"/>
         <v>2.6143388798326894E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -58099,10 +58231,18 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="4"/>
+        <v>-3.4068777980666765E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="5"/>
+        <v>-8.5915353872758615E-3</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="6"/>
         <v>2.545484518778296E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -58139,10 +58279,18 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="4"/>
+        <v>-0.32152807159198737</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.3518321964706703E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="6"/>
         <v>2.4793750776403112E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -58179,10 +58327,18 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="4"/>
+        <v>0.21940736140401884</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="5"/>
+        <v>7.1957511080514402E-2</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="6"/>
         <v>2.4225706553397286E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -58219,10 +58375,18 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="4"/>
+        <v>5.298296905572375E-2</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="5"/>
+        <v>2.0819773174437506E-2</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="6"/>
         <v>2.3831569747546411E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -58259,10 +58423,18 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="4"/>
+        <v>0.15171333289895994</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="5"/>
+        <v>0.10474160202566307</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="6"/>
         <v>2.3628344598376261E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -58299,10 +58471,18 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="4"/>
+        <v>7.594436257686521E-2</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="5"/>
+        <v>6.6932055103472221E-2</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="6"/>
         <v>2.3559175405866162E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -58339,10 +58519,18 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="4"/>
+        <v>-3.2430904446638653E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="5"/>
+        <v>2.9254769323208141E-2</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="6"/>
         <v>2.3541105450972877E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -58379,10 +58567,18 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="4"/>
+        <v>-0.3882281706476769</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="5"/>
+        <v>-6.6874495900032027E-2</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="6"/>
         <v>2.3534725328216544E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -58419,10 +58615,18 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="4"/>
+        <v>-6.1427568157507939E-2</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6228177303492259E-3</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="6"/>
         <v>2.3387192464709328E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -58459,10 +58663,18 @@
       </c>
       <c r="K27" s="4">
         <f t="shared" si="4"/>
+        <v>-6.2444810458616828E-2</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5784523073615784E-2</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="6"/>
         <v>2.3043644069572267E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -58499,10 +58711,18 @@
       </c>
       <c r="K28" s="4">
         <f t="shared" si="4"/>
+        <v>0.25773069084321509</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2680077275823098E-2</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="6"/>
         <v>2.2709842448903395E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -58539,10 +58759,18 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="4"/>
+        <v>2.3743440176953179E-3</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="5"/>
+        <v>-3.9577975852124414E-2</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="6"/>
         <v>2.2372894933599063E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -58579,10 +58807,18 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="4"/>
+        <v>-0.62595666624730484</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.1524630366313674</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="6"/>
         <v>2.2022164945536549E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -58619,10 +58855,18 @@
       </c>
       <c r="K31" s="4">
         <f t="shared" si="4"/>
+        <v>-0.28870132358031608</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.8515872118205525E-3</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="6"/>
         <v>2.1600454208391628E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -58659,10 +58903,18 @@
       </c>
       <c r="K32" s="4">
         <f t="shared" si="4"/>
+        <v>2.5260864027844154</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="5"/>
+        <v>5.8296345866571952E-2</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="6"/>
         <v>2.1443506140206514E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -58699,10 +58951,18 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="4"/>
+        <v>8.2153270608700257E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="5"/>
+        <v>7.141625894576098E-2</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="6"/>
         <v>2.1255787830698258E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -58739,10 +58999,18 @@
       </c>
       <c r="K34" s="4">
         <f t="shared" si="4"/>
+        <v>0.35794326572589408</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="5"/>
+        <v>5.9846824278881661E-2</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="6"/>
         <v>2.0918097363595622E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -58779,10 +59047,18 @@
       </c>
       <c r="K35" s="4">
         <f t="shared" si="4"/>
+        <v>0.11442725364178274</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3075201113538677E-2</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="6"/>
         <v>2.0794462222173404E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -58819,10 +59095,18 @@
       </c>
       <c r="K36" s="4">
         <f t="shared" si="4"/>
+        <v>0.12003827334858519</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="5"/>
+        <v>7.6770364577856132E-3</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="6"/>
         <v>2.0665779737595313E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -58859,10 +59143,18 @@
       </c>
       <c r="K37" s="4">
         <f t="shared" si="4"/>
+        <v>8.566124182155388E-2</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.9686617855677611E-3</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="6"/>
         <v>2.054644480223633E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -58899,10 +59191,18 @@
       </c>
       <c r="K38" s="4">
         <f t="shared" si="4"/>
+        <v>5.3073089254206396E-2</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9940955702326679E-2</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="6"/>
         <v>2.0448317364777813E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -58939,10 +59239,18 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="4"/>
+        <v>2.1469189099374786E-2</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="5"/>
+        <v>4.3383149137363075E-2</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="6"/>
         <v>2.0344161471724354E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -58979,10 +59287,18 @@
       </c>
       <c r="K40" s="4">
         <f t="shared" si="4"/>
+        <v>8.7306707468487676E-2</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="5"/>
+        <v>5.2139626982177001E-2</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="6"/>
         <v>2.0221061445718336E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -59019,10 +59335,18 @@
       </c>
       <c r="K41" s="4">
         <f t="shared" si="4"/>
+        <v>1.5047741411986948E-2</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8713251087444371E-2</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="6"/>
         <v>2.0082996641107353E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -59059,10 +59383,18 @@
       </c>
       <c r="K42" s="4">
         <f t="shared" si="4"/>
+        <v>-0.10986371140181495</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="5"/>
+        <v>7.0978111714805614E-3</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="6"/>
         <v>1.9914580445241858E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -59099,10 +59431,18 @@
       </c>
       <c r="K43" s="4">
         <f t="shared" si="4"/>
+        <v>-0.25649973553191596</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.3738825837026458E-2</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="6"/>
         <v>1.9752935889325141E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -59139,10 +59479,18 @@
       </c>
       <c r="K44" s="4">
         <f t="shared" si="4"/>
+        <v>-7.2462876705618684E-2</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="5"/>
+        <v>2.6494152942262428E-3</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="6"/>
         <v>1.9590176359283618E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -59179,10 +59527,18 @@
       </c>
       <c r="K45" s="4">
         <f t="shared" si="4"/>
+        <v>0.16772235539925973</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2201071875637801E-2</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="6"/>
         <v>1.9422683187065637E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -59219,10 +59575,18 @@
       </c>
       <c r="K46" s="4">
         <f t="shared" si="4"/>
+        <v>7.7757509983716444E-2</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="5"/>
+        <v>5.4765049716295255E-2</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="6"/>
         <v>1.9393652517846416E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -59259,10 +59623,18 @@
       </c>
       <c r="K47" s="4">
         <f t="shared" si="4"/>
+        <v>9.0018270766512032E-3</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="5"/>
+        <v>5.1628968820496279E-2</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="6"/>
         <v>1.9288005374754391E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -59299,10 +59671,18 @@
       </c>
       <c r="K48" s="4">
         <f t="shared" si="4"/>
+        <v>0.11425770532665225</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="5"/>
+        <v>6.6299317791459256E-2</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="6"/>
         <v>1.8967786977580392E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -59339,10 +59719,18 @@
       </c>
       <c r="K49" s="4">
         <f t="shared" si="4"/>
+        <v>0.36354499170653187</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="5"/>
+        <v>9.9267661319933032E-2</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="6"/>
         <v>1.8714452677736304E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -59379,10 +59767,18 @@
       </c>
       <c r="K50" s="4">
         <f t="shared" si="4"/>
+        <v>0.25862405165815772</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="5"/>
+        <v>7.854774034401224E-2</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="6"/>
         <v>1.8551620316271E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -59419,10 +59815,18 @@
       </c>
       <c r="K51" s="4">
         <f t="shared" si="4"/>
+        <v>-0.22814590421516523</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.7934815035652898E-3</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="6"/>
         <v>1.8329596861592634E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -59459,10 +59863,18 @@
       </c>
       <c r="K52" s="4">
         <f t="shared" si="4"/>
+        <v>0.30497854715285566</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9508667301018097E-2</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="6"/>
         <v>1.8057826964133605E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -59499,10 +59911,18 @@
       </c>
       <c r="K53" s="4">
         <f t="shared" si="4"/>
+        <v>0.11776292170085179</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="5"/>
+        <v>9.3503918150657617E-2</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="6"/>
         <v>1.7953608231775053E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -59539,10 +59959,18 @@
       </c>
       <c r="K54" s="4">
         <f t="shared" si="4"/>
+        <v>0.23149073436423406</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="5"/>
+        <v>7.8433940010694814E-2</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="6"/>
         <v>1.794357538779523E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -59579,10 +60007,18 @@
       </c>
       <c r="K55" s="4">
         <f t="shared" si="4"/>
+        <v>8.5798194128019922E-2</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0382546241173332E-2</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="6"/>
         <v>1.7762037592859548E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -59619,10 +60055,18 @@
       </c>
       <c r="K56" s="4">
         <f t="shared" si="4"/>
+        <v>4.3092100263840916E-2</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="5"/>
+        <v>3.2498301523364859E-2</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="6"/>
         <v>1.7594142281311509E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -59659,10 +60103,18 @@
       </c>
       <c r="K57" s="4">
         <f t="shared" si="4"/>
+        <v>4.6050696581585004E-2</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="5"/>
+        <v>3.9079288678276036E-2</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="6"/>
         <v>1.7564833098598909E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -59699,10 +60151,18 @@
       </c>
       <c r="K58" s="4">
         <f t="shared" si="4"/>
+        <v>-2.1786896937026734E-2</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="5"/>
+        <v>3.1484327110090193E-2</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="6"/>
         <v>1.7496908720251891E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -59739,10 +60199,18 @@
       </c>
       <c r="K59" s="4">
         <f t="shared" si="4"/>
+        <v>6.3812440847049734E-2</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="5"/>
+        <v>3.793677977836607E-2</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="6"/>
         <v>1.7317730065250281E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -59779,10 +60247,18 @@
       </c>
       <c r="K60" s="4">
         <f t="shared" si="4"/>
+        <v>3.8560585127087599E-3</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9630378470624432E-2</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="6"/>
         <v>1.6892318306627629E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -59819,10 +60295,18 @@
       </c>
       <c r="K61" s="4">
         <f t="shared" si="4"/>
+        <v>-6.0277032477103032E-2</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3428865340273211E-2</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="6"/>
         <v>1.6151952281432846E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -59859,10 +60343,18 @@
       </c>
       <c r="K62" s="4">
         <f t="shared" si="4"/>
+        <v>-0.50845742838271601</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.1912695903846614</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="6"/>
         <v>1.4616310047980807E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -59899,6 +60391,14 @@
       </c>
       <c r="K63" s="4">
         <f t="shared" si="4"/>
+        <v>0.28917893983492204</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="5"/>
+        <v>0.13828435638977443</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="6"/>
         <v>1.3243073065455579E-2</v>
       </c>
     </row>
